--- a/storage/app/import/pixmosaic-video/pix_video.xlsx
+++ b/storage/app/import/pixmosaic-video/pix_video.xlsx
@@ -717,334 +717,334 @@
     <t>PIX766</t>
   </si>
   <si>
-    <t>https://www.youtube.com/shorts/D4rlWGFGbds</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/dPQXL9jaHc0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/6Z3MzD68am4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/3q04M_Gsq0s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/mXBZArss4Y4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/5O_xfnVw-bA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/fhkddsgy8OU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/sixQRSszrEg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/xtcdZBYjhxc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/kaLq-mEoCm0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/0Xt-3h8FGn4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/1vCkpDxnlT4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/W3rI-lxD5wE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/XSQ-ZlxYqeg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/dR-94tc5VHg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/ocxTqZDuEzA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/pGo0BhkNenY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/ptKmppo6DIU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/sSBrQ0_IwcU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/-tcQ809zi8k</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/RBPqpkTfHzE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/RpoaRmDfQDs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/dpOdrRP4rrY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/eW-MDtAUF_Q</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/g58G4bEfojc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/7VwVbAE9lTY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/BAhXXgveWK0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/G-RpokuJppw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/IFDzGkNvPFs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/JfmgBo46QjY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/iUllStdPS4s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/lu5H26h9Ll0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/z7KqaCM3Q9E</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/2KdBMpGDRGI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/4bSnlTaWR-0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/PLmOjJB4G8o</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/aBt81q9Q4x8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/aoBjLIn4PiM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/e5Nc8wziKIc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/fY1eNOamFZw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/y8GFjkg9Cqs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/2rT4pWThBKs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/Ba0HsJKFVZM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/Dnm0x0SKN6g</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/LYJK-K7PrtM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/kSP-bbzEj7g</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/m3UeuBXHOGo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/qjSZsM0WSX0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/uFK8p1zreBU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/v_d4QWKy4xY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/YkHBJDNj6dU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/a-w878fSfvM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/cTuB1hFB5EA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/iOOQ8MA57Ow</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/jbyGZVYT3oM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/u5eTqV1iqzE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/6Nti4_4CNYA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/OIKyPQaBGCw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/QHm6qySAqSk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/XtKamuaOpQY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/lWqa2JQRyEM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/mKiahKFh4ns</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/qqOC0EYhZmA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/tiukuAudKRg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/tz3vCzsSnZc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/TBU1vyaMavQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/UEFUF9Vk9Cc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/Z70T3nlLoGA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/bSuUDPCHZWM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/fMvCnZlGkEQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/CBKjfcNNR44</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/CEZ3NnhNqNI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/GO0c6WvdxXQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/OICvSJtWHC0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/Qlwkpj7dHMY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/CsNyfaIasvk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/GxE_dXSiN00</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QwK1fpLL2jE&amp;ab_channel=PixelMosaic</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/hPLscZkCREg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/zzjzvf8riGA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/SReZkkgG-WM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/Z_0EQMYjd_Y</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/rOK7_ZjBtlk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/6-EQO_LoYM8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/COI_pNBQnDA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/hHJVYGzjjJQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rwbaTwRAsYg&amp;ab_channel=PixelMosaic</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/2PnKw3gwjsw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/IF5VbdKzAJQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NKnBXA1f1vs&amp;ab_channel=PixelMosaic</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/liH2Dy-8KNE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/8fsTW-Q15a8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/AqGGozuyfZ4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/yH4zzl25NMk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/XxkrL22VhtQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=u11hA-XiLpE&amp;ab_channel=PixelMosaic</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/KD7vjf82EOM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/QJV5Kd8-4_E</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/BILdIQNaLYU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/CnuyKDF7Vms</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/9KpjUaFwuic</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/TMsbAHA9YSo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/KKSI4V9m6_4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/eIwq6TucEIM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/y1mou-NjmCg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/NypuYkkk6FY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/Lq6xJM3J2UQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/tb90n3dqVkM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/7Uyz5ytknXM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/zxglCzNS1Ag</t>
+    <t>https://www.youtube.com/watch?v=u11hA-XiLpE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QwK1fpLL2jE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rwbaTwRAsYg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NKnBXA1f1vs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RBPqpkTfHzE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aoBjLIn4PiM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fY1eNOamFZw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eW-MDtAUF_Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4bSnlTaWR-0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7VwVbAE9lTY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-tcQ809zi8k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lu5H26h9Ll0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IFDzGkNvPFs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XtKamuaOpQY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dR-94tc5VHg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dpOdrRP4rrY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hPLscZkCREg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kaLq-mEoCm0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=G-RpokuJppw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1vCkpDxnlT4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=W3rI-lxD5wE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0Xt-3h8FGn4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ptKmppo6DIU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kSP-bbzEj7g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=COI_pNBQnDA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XSQ-ZlxYqeg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CBKjfcNNR44</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dPQXL9jaHc0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8GFjkg9Cqs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SReZkkgG-WM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GxE_dXSiN00</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IF5VbdKzAJQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y1mou-NjmCg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eIwq6TucEIM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KKSI4V9m6_4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zxglCzNS1Ag</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7Uyz5ytknXM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tb90n3dqVkM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Lq6xJM3J2UQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NypuYkkk6FY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aBt81q9Q4x8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Z_0EQMYjd_Y</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2KdBMpGDRGI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jbyGZVYT3oM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tiukuAudKRg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CEZ3NnhNqNI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uFK8p1zreBU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sixQRSszrEg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Z70T3nlLoGA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BILdIQNaLYU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mXBZArss4Y4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XxkrL22VhtQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KD7vjf82EOM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5O_xfnVw-bA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TBU1vyaMavQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bSuUDPCHZWM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m3UeuBXHOGo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pGo0BhkNenY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JfmgBo46QjY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xtcdZBYjhxc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cTuB1hFB5EA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mKiahKFh4ns</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z7KqaCM3Q9E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rOK7_ZjBtlk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=g58G4bEfojc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D4rlWGFGbds</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CnuyKDF7Vms</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LYJK-K7PrtM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CsNyfaIasvk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8fsTW-Q15a8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QJV5Kd8-4_E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v_d4QWKy4xY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YkHBJDNj6dU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OICvSJtWHC0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ocxTqZDuEzA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fhkddsgy8OU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a-w878fSfvM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=u5eTqV1iqzE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qqOC0EYhZmA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RpoaRmDfQDs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yH4zzl25NMk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UEFUF9Vk9Cc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=liH2Dy-8KNE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AqGGozuyfZ4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TMsbAHA9YSo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6Nti4_4CNYA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6-EQO_LoYM8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSBrQ0_IwcU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BAhXXgveWK0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lWqa2JQRyEM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6Z3MzD68am4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2PnKw3gwjsw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9KpjUaFwuic</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fMvCnZlGkEQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hHJVYGzjjJQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qjSZsM0WSX0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Qlwkpj7dHMY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GO0c6WvdxXQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QHm6qySAqSk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OIKyPQaBGCw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tz3vCzsSnZc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Dnm0x0SKN6g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2rT4pWThBKs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zzjzvf8riGA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PLmOjJB4G8o</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3q04M_Gsq0s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ba0HsJKFVZM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=e5Nc8wziKIc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iOOQ8MA57Ow</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iUllStdPS4s</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1395,7 @@
   <dimension ref="A1:B232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1417,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1435,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1443,7 +1443,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1451,7 +1451,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1459,7 +1459,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1467,15 +1467,15 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>252</v>
+      <c r="B10" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1483,7 +1483,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1491,7 +1491,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1504,7 +1504,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1520,7 +1520,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1528,7 +1528,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>311</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1536,7 +1536,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1544,7 +1544,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1552,7 +1552,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1560,7 +1560,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1568,7 +1568,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1576,7 +1576,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1584,7 +1584,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1592,7 +1592,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1600,7 +1600,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1608,7 +1608,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1616,7 +1616,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>313</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1696,7 +1696,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>337</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>342</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>341</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>339</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1920,7 +1920,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1928,7 +1928,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1936,7 +1936,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1944,7 +1944,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2017,7 +2017,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2025,7 +2025,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2033,7 +2033,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2041,7 +2041,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2049,7 +2049,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2057,7 +2057,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2065,7 +2065,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2073,7 +2073,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2081,7 +2081,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2089,7 +2089,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2261,7 +2261,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2269,7 +2269,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2277,7 +2277,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2285,7 +2285,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>233</v>
+        <v>298</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2297,8 +2297,8 @@
       <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B141" t="s">
-        <v>328</v>
+      <c r="B141" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2314,15 +2314,15 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B144" t="s">
-        <v>310</v>
+      <c r="B144" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2372,7 +2372,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2403,7 +2403,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2411,7 +2411,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2419,7 +2419,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2427,7 +2427,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2440,7 +2440,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2448,7 +2448,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2491,7 +2491,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2538,8 +2538,8 @@
       <c r="A179" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B179" t="s">
-        <v>319</v>
+      <c r="B179" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2552,7 +2552,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2565,7 +2565,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2573,7 +2573,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2581,7 +2581,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2589,7 +2589,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2597,7 +2597,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2605,15 +2605,15 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B189" t="s">
-        <v>259</v>
+      <c r="B189" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2621,7 +2621,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2629,7 +2629,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2650,7 +2650,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2658,7 +2658,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2671,7 +2671,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2687,15 +2687,15 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B200" t="s">
-        <v>305</v>
+      <c r="B200" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2708,7 +2708,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2716,7 +2716,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>322</v>
+        <v>236</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2739,7 +2739,7 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2747,7 +2747,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2755,7 +2755,7 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2763,7 +2763,7 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>274</v>
+        <v>335</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2771,7 +2771,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2779,7 +2779,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>268</v>
+        <v>337</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>236</v>
+        <v>338</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>275</v>
+        <v>339</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>271</v>
+        <v>340</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2826,7 +2826,7 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2834,7 +2834,7 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>263</v>
+        <v>342</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2900,9 +2900,15 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B203" r:id="rId1"/>
+    <hyperlink ref="B141" r:id="rId2"/>
+    <hyperlink ref="B144" r:id="rId3"/>
+    <hyperlink ref="B179" r:id="rId4"/>
+    <hyperlink ref="B200" r:id="rId5" display="https://www.youtube.com/shorts/GO0c6WvdxXQ"/>
+    <hyperlink ref="B189" r:id="rId6"/>
+    <hyperlink ref="B10" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/storage/app/import/pixmosaic-video/pix_video.xlsx
+++ b/storage/app/import/pixmosaic-video/pix_video.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
   <si>
     <t>vendor_code</t>
   </si>
@@ -1045,6 +1045,222 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=iUllStdPS4s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lSWikFSXqV8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QXojXggNP6k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Flc7blBv17I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FoN3HKdRRKg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hSwKpfq8oRc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EtoYTeFxDp4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bCwTSwZIwg8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KCDToZrPNsY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZZGmO4_ayt4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eecRGS__jfk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tQX0Yt1-pGU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uxeKkRqt_Ek</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9iMcAy69Ozw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wIB1nhq6rWw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w9932ZgWLO4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V8cjagofg5A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o3QBfTFvgAg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=54LnqsbDRbg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Az46qFSt_6w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=54MA2kN-MYI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bvh2PTMcvt8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YBTNhk_W7p8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7jcg6sfhPcg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NiqziBgSEBY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VujAkxGFgTI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ja0FiqnS490</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9KOTc-7bNno</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ug_rNfTrhD0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WFkPw1vQp0w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0SB2eceAUL4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uvh1ygb4hmg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BetleB_rH8s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UaqdoePlyzg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1xseHCjRVek</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=K8ArukVZns8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C-zPxLrHfJU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=un1q6CXEMI8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5WcqlmkVJYQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2EmrwqXj-nU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_a1zsFffj18</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kBN0_Q7bnIs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wv8LRjguwR4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uA6cUoSncfg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3TiHB8SXqHQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QOvZQAqJDKA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i0Fb4JhrG3k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hdMX06jit4c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5yox-_8h3QY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFtaOX1USgs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mrIc8iYP4PU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6yqdk254p6Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L1GxQza5flg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yEtAW7zVDh8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tiU5IQfDEmc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P5r6I62vhGM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PL7fnwhwqRE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7932JHt0RB0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YBrdgWeXbbA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Q8b8KtBns_Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WFsyP7IrdwM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i_2SajgqNHM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ru_3mbwozGM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Gwt3eMjbQ3s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iO9YCFL_GZI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VRQV828z1YA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uR04L7PWKvg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UlPcfjPEwCU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IT2zauze76s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rbdzN6AIRa8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_0sSH0TrvFc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JP_qaCDUGhs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f_NMeh_3TrQ</t>
   </si>
 </sst>
 </file>
@@ -1394,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B226" sqref="B226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1434,7 +1650,7 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>238</v>
       </c>
     </row>
@@ -1643,6 +1859,9 @@
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B33" s="2" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
@@ -1703,16 +1922,25 @@
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="B42" s="2" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="B43" s="2" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="B44" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
@@ -1743,115 +1971,178 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="B65" s="2" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="B66" s="2" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="B67" s="2" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="B68" s="2" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="B69" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="B70" s="2" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
@@ -1881,21 +2172,33 @@
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="B74" s="2" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="B75" s="2" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="B76" s="2" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="B77" s="2" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
@@ -1909,11 +2212,17 @@
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="B79" s="2" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="B80" s="2" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
@@ -1951,66 +2260,105 @@
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="B85" s="2" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="B86" s="2" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="B87" s="2" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="B88" s="2" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="B89" s="2" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="B90" s="2" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="B91" s="2" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="B92" s="2" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="B93" s="2" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="B94" s="2" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="B95" s="2" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="B96" s="2" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="B97" s="2" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
@@ -2109,16 +2457,25 @@
       <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="B110" s="2" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="B111" s="2" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="B112" s="2" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
@@ -2169,7 +2526,7 @@
       <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>293</v>
       </c>
     </row>
@@ -2177,31 +2534,49 @@
       <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="B120" s="2" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="B121" s="2" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="B122" s="2" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="B123" s="2" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="B124" s="2" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="B125" s="2" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
@@ -2366,6 +2741,9 @@
       <c r="A150" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="B150" s="2" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
@@ -2434,6 +2812,9 @@
       <c r="A160" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="B160" s="2" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
@@ -2475,11 +2856,17 @@
       <c r="A167" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="B167" s="2" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="B168" s="2" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1" t="s">
@@ -2513,26 +2900,41 @@
       <c r="A174" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="B174" s="2" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="B175" s="2" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="B176" s="2" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="B177" s="2" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="B178" s="2" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1" t="s">
@@ -2546,6 +2948,9 @@
       <c r="A180" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="B180" s="2" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1" t="s">
@@ -2559,6 +2964,9 @@
       <c r="A182" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="B182" s="2" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1" t="s">
@@ -2636,6 +3044,9 @@
       <c r="A192" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="B192" s="2" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1" t="s">
@@ -2665,6 +3076,9 @@
       <c r="A196" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="B196" s="2" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1" t="s">
@@ -2723,6 +3137,9 @@
       <c r="A204" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="B204" s="2" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1" t="s">
@@ -2733,6 +3150,9 @@
       <c r="A206" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="B206" s="2" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1" t="s">
@@ -2786,16 +3206,25 @@
       <c r="A213" s="1" t="s">
         <v>213</v>
       </c>
+      <c r="B213" s="2" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1" t="s">
         <v>214</v>
       </c>
+      <c r="B214" s="2" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="B215" s="2" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1" t="s">
@@ -2857,42 +3286,45 @@
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:2">
       <c r="A225" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:2">
       <c r="A226" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
+      <c r="B226" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
       <c r="A227" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:2">
       <c r="A228" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:2">
       <c r="A229" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:2">
       <c r="A230" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:2">
       <c r="A231" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:2">
       <c r="A232" s="1" t="s">
         <v>232</v>
       </c>
@@ -2906,9 +3338,83 @@
     <hyperlink ref="B200" r:id="rId5" display="https://www.youtube.com/shorts/GO0c6WvdxXQ"/>
     <hyperlink ref="B189" r:id="rId6"/>
     <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B119" r:id="rId8"/>
+    <hyperlink ref="B5" r:id="rId9"/>
+    <hyperlink ref="B33" r:id="rId10"/>
+    <hyperlink ref="B42" r:id="rId11"/>
+    <hyperlink ref="B43" r:id="rId12"/>
+    <hyperlink ref="B44" r:id="rId13"/>
+    <hyperlink ref="B50" r:id="rId14"/>
+    <hyperlink ref="B51" r:id="rId15"/>
+    <hyperlink ref="B52" r:id="rId16"/>
+    <hyperlink ref="B53" r:id="rId17"/>
+    <hyperlink ref="B54" r:id="rId18"/>
+    <hyperlink ref="B55" r:id="rId19"/>
+    <hyperlink ref="B56" r:id="rId20"/>
+    <hyperlink ref="B57" r:id="rId21"/>
+    <hyperlink ref="B58" r:id="rId22"/>
+    <hyperlink ref="B59" r:id="rId23"/>
+    <hyperlink ref="B60" r:id="rId24"/>
+    <hyperlink ref="B61" r:id="rId25"/>
+    <hyperlink ref="B62" r:id="rId26"/>
+    <hyperlink ref="B63" r:id="rId27"/>
+    <hyperlink ref="B64" r:id="rId28"/>
+    <hyperlink ref="B65" r:id="rId29"/>
+    <hyperlink ref="B66" r:id="rId30"/>
+    <hyperlink ref="B67" r:id="rId31"/>
+    <hyperlink ref="B68" r:id="rId32"/>
+    <hyperlink ref="B69" r:id="rId33"/>
+    <hyperlink ref="B70" r:id="rId34"/>
+    <hyperlink ref="B74" r:id="rId35"/>
+    <hyperlink ref="B75" r:id="rId36"/>
+    <hyperlink ref="B76" r:id="rId37"/>
+    <hyperlink ref="B77" r:id="rId38"/>
+    <hyperlink ref="B79" r:id="rId39"/>
+    <hyperlink ref="B80" r:id="rId40"/>
+    <hyperlink ref="B85" r:id="rId41"/>
+    <hyperlink ref="B86" r:id="rId42"/>
+    <hyperlink ref="B87" r:id="rId43"/>
+    <hyperlink ref="B88" r:id="rId44"/>
+    <hyperlink ref="B89" r:id="rId45"/>
+    <hyperlink ref="B90" r:id="rId46"/>
+    <hyperlink ref="B91" r:id="rId47"/>
+    <hyperlink ref="B92" r:id="rId48"/>
+    <hyperlink ref="B93" r:id="rId49"/>
+    <hyperlink ref="B94" r:id="rId50"/>
+    <hyperlink ref="B95" r:id="rId51"/>
+    <hyperlink ref="B96" r:id="rId52"/>
+    <hyperlink ref="B97" r:id="rId53"/>
+    <hyperlink ref="B110" r:id="rId54"/>
+    <hyperlink ref="B111" r:id="rId55"/>
+    <hyperlink ref="B112" r:id="rId56"/>
+    <hyperlink ref="B120" r:id="rId57"/>
+    <hyperlink ref="B121" r:id="rId58"/>
+    <hyperlink ref="B122" r:id="rId59"/>
+    <hyperlink ref="B123" r:id="rId60"/>
+    <hyperlink ref="B124" r:id="rId61"/>
+    <hyperlink ref="B125" r:id="rId62"/>
+    <hyperlink ref="B150" r:id="rId63"/>
+    <hyperlink ref="B160" r:id="rId64"/>
+    <hyperlink ref="B167" r:id="rId65"/>
+    <hyperlink ref="B168" r:id="rId66"/>
+    <hyperlink ref="B174" r:id="rId67"/>
+    <hyperlink ref="B175" r:id="rId68"/>
+    <hyperlink ref="B176" r:id="rId69"/>
+    <hyperlink ref="B177" r:id="rId70"/>
+    <hyperlink ref="B178" r:id="rId71"/>
+    <hyperlink ref="B180" r:id="rId72"/>
+    <hyperlink ref="B182" r:id="rId73"/>
+    <hyperlink ref="B192" r:id="rId74"/>
+    <hyperlink ref="B196" r:id="rId75"/>
+    <hyperlink ref="B204" r:id="rId76"/>
+    <hyperlink ref="B206" r:id="rId77"/>
+    <hyperlink ref="B213" r:id="rId78"/>
+    <hyperlink ref="B214" r:id="rId79"/>
+    <hyperlink ref="B215" r:id="rId80"/>
+    <hyperlink ref="B226" r:id="rId81"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId82"/>
 </worksheet>
 </file>
 

--- a/storage/app/import/pixmosaic-video/pix_video.xlsx
+++ b/storage/app/import/pixmosaic-video/pix_video.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="466">
   <si>
     <t>vendor_code</t>
   </si>
@@ -1260,7 +1260,160 @@
     <t>https://www.youtube.com/watch?v=JP_qaCDUGhs</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=f_NMeh_3TrQ</t>
+    <t>PIX338</t>
+  </si>
+  <si>
+    <t>PIX332</t>
+  </si>
+  <si>
+    <t>PIX339</t>
+  </si>
+  <si>
+    <t>PIX330</t>
+  </si>
+  <si>
+    <t>PIX328</t>
+  </si>
+  <si>
+    <t>PIX327</t>
+  </si>
+  <si>
+    <t>PIX326</t>
+  </si>
+  <si>
+    <t>PIX325</t>
+  </si>
+  <si>
+    <t>PIX324</t>
+  </si>
+  <si>
+    <t>PIX323</t>
+  </si>
+  <si>
+    <t>PIX322</t>
+  </si>
+  <si>
+    <t>PIX321</t>
+  </si>
+  <si>
+    <t>PIX337</t>
+  </si>
+  <si>
+    <t>PIX336</t>
+  </si>
+  <si>
+    <t>PIX335</t>
+  </si>
+  <si>
+    <t>PIX334</t>
+  </si>
+  <si>
+    <t>PIX333</t>
+  </si>
+  <si>
+    <t>PIX319</t>
+  </si>
+  <si>
+    <t>PIX318</t>
+  </si>
+  <si>
+    <t>PIX310</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DpW9SY9uUsc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DhAfnV2_-L0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FyntI5TAtHs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FxG5N0QK6mE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o4odgrruPbI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P3P4JDwpdU8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WLUBKRJz678</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AIEXLMz0Ofw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nyg4MhW8y0E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cxCnged1ix4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4qHoLqGS88o</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i4gfvay5H58</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QPCanbCO4gc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_ualF0HwwYs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zQO5q6i4exY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FzzfKNRISXI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XrRwabTmjGw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gXcvXXIaT6E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MF1_9sD9Db0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A1EEoH79NME</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RNWK7I0kNuU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=itFvH68Uaf4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nHSPXr4WC1g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=45L2Ug_oNuE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pwZarsvd2ss</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V-Y8Ax8jgVY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fBWRMUbbf6I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JnZ7BOIWlwo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Cjo7OJQvKSo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=G8JMoF73hFI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=c-Jxn1zQuh0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A2Oe2ouYu9w</t>
   </si>
 </sst>
 </file>
@@ -1608,10 +1761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B232"/>
+  <dimension ref="A1:B252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2580,763 +2733,956 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>126</v>
+        <v>433</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>127</v>
+        <v>432</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>128</v>
+        <v>431</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>129</v>
+        <v>425</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>130</v>
+        <v>424</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>131</v>
+        <v>423</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>132</v>
+        <v>422</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>133</v>
+        <v>421</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B134" t="s">
-        <v>294</v>
+        <v>420</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>135</v>
+        <v>419</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136" t="s">
-        <v>295</v>
+        <v>418</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B137" t="s">
-        <v>296</v>
+        <v>417</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B138" t="s">
-        <v>297</v>
+        <v>415</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B139" t="s">
-        <v>298</v>
+        <v>430</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>140</v>
+        <v>429</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>141</v>
+        <v>428</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>233</v>
+        <v>461</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B142" t="s">
-        <v>299</v>
+        <v>427</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B143" t="s">
-        <v>300</v>
+        <v>426</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>144</v>
+        <v>414</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>234</v>
+        <v>464</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B145" t="s">
-        <v>301</v>
+        <v>416</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B146" t="s">
-        <v>302</v>
+        <v>126</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B148" t="s">
-        <v>303</v>
+        <v>128</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B149" t="s">
-        <v>304</v>
+        <v>129</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>396</v>
+        <v>130</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B151" t="s">
-        <v>305</v>
+        <v>131</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>154</v>
+        <v>134</v>
+      </c>
+      <c r="B154" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B155" t="s">
-        <v>306</v>
+        <v>135</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B156" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B157" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B158" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B159" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>397</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B161" t="s">
-        <v>311</v>
+        <v>141</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B162" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
+      </c>
+      <c r="B163" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
-        <v>165</v>
+        <v>145</v>
+      </c>
+      <c r="B165" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
+      </c>
+      <c r="B166" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>398</v>
+        <v>147</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>399</v>
+        <v>148</v>
+      </c>
+      <c r="B168" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1" t="s">
-        <v>169</v>
+        <v>149</v>
+      </c>
+      <c r="B169" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B170" t="s">
-        <v>313</v>
+        <v>150</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
+      </c>
+      <c r="B171" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>400</v>
+        <v>154</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>401</v>
+        <v>155</v>
+      </c>
+      <c r="B175" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>402</v>
+        <v>156</v>
+      </c>
+      <c r="B176" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>403</v>
+        <v>157</v>
+      </c>
+      <c r="B177" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>404</v>
+        <v>158</v>
+      </c>
+      <c r="B178" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>235</v>
+        <v>159</v>
+      </c>
+      <c r="B179" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B181" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>406</v>
+        <v>162</v>
+      </c>
+      <c r="B182" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B183" t="s">
-        <v>315</v>
+        <v>163</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B184" t="s">
-        <v>316</v>
+        <v>164</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B185" t="s">
-        <v>317</v>
+        <v>165</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B186" t="s">
-        <v>318</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B187" t="s">
-        <v>319</v>
+        <v>167</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B188" t="s">
-        <v>320</v>
+        <v>168</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>321</v>
+        <v>169</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B190" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B191" t="s">
-        <v>323</v>
+        <v>171</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>407</v>
+        <v>172</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B193" t="s">
-        <v>324</v>
+        <v>173</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B194" t="s">
-        <v>325</v>
+        <v>174</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B195" t="s">
-        <v>326</v>
+        <v>175</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B197" t="s">
-        <v>327</v>
+        <v>177</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B198" t="s">
-        <v>328</v>
+        <v>178</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B199" t="s">
-        <v>329</v>
+        <v>179</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>330</v>
+        <v>405</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
+      </c>
+      <c r="B201" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B202" t="s">
-        <v>331</v>
+        <v>182</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>236</v>
+        <v>183</v>
+      </c>
+      <c r="B203" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>409</v>
+        <v>184</v>
+      </c>
+      <c r="B204" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
+      </c>
+      <c r="B205" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>410</v>
+        <v>186</v>
+      </c>
+      <c r="B206" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B207" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="B208" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B209" t="s">
-        <v>334</v>
+        <v>189</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B210" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B211" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B212" t="s">
-        <v>337</v>
+        <v>192</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>411</v>
+        <v>193</v>
+      </c>
+      <c r="B213" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>412</v>
+        <v>194</v>
+      </c>
+      <c r="B214" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>413</v>
+        <v>195</v>
+      </c>
+      <c r="B215" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B216" t="s">
-        <v>338</v>
+        <v>196</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="B217" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B218" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B219" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B220" t="s">
-        <v>342</v>
+        <v>200</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
+      </c>
+      <c r="B222" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1" t="s">
-        <v>223</v>
+        <v>203</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1" t="s">
-        <v>224</v>
+        <v>204</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1" t="s">
-        <v>227</v>
+        <v>207</v>
+      </c>
+      <c r="B227" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1" t="s">
-        <v>228</v>
+        <v>208</v>
+      </c>
+      <c r="B228" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1" t="s">
-        <v>229</v>
+        <v>209</v>
+      </c>
+      <c r="B229" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1" t="s">
-        <v>230</v>
+        <v>210</v>
+      </c>
+      <c r="B230" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1" t="s">
-        <v>231</v>
+        <v>211</v>
+      </c>
+      <c r="B231" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B232" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B236" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B237" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B238" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B240" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1" t="s">
         <v>232</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B203" r:id="rId1"/>
-    <hyperlink ref="B141" r:id="rId2"/>
-    <hyperlink ref="B144" r:id="rId3"/>
-    <hyperlink ref="B179" r:id="rId4"/>
-    <hyperlink ref="B200" r:id="rId5" display="https://www.youtube.com/shorts/GO0c6WvdxXQ"/>
-    <hyperlink ref="B189" r:id="rId6"/>
+    <hyperlink ref="B223" r:id="rId1"/>
+    <hyperlink ref="B161" r:id="rId2"/>
+    <hyperlink ref="B164" r:id="rId3"/>
+    <hyperlink ref="B199" r:id="rId4"/>
+    <hyperlink ref="B220" r:id="rId5" display="https://www.youtube.com/shorts/GO0c6WvdxXQ"/>
+    <hyperlink ref="B209" r:id="rId6"/>
     <hyperlink ref="B10" r:id="rId7"/>
     <hyperlink ref="B119" r:id="rId8"/>
     <hyperlink ref="B5" r:id="rId9"/>
@@ -3393,28 +3739,60 @@
     <hyperlink ref="B123" r:id="rId60"/>
     <hyperlink ref="B124" r:id="rId61"/>
     <hyperlink ref="B125" r:id="rId62"/>
-    <hyperlink ref="B150" r:id="rId63"/>
-    <hyperlink ref="B160" r:id="rId64"/>
-    <hyperlink ref="B167" r:id="rId65"/>
-    <hyperlink ref="B168" r:id="rId66"/>
-    <hyperlink ref="B174" r:id="rId67"/>
-    <hyperlink ref="B175" r:id="rId68"/>
-    <hyperlink ref="B176" r:id="rId69"/>
-    <hyperlink ref="B177" r:id="rId70"/>
-    <hyperlink ref="B178" r:id="rId71"/>
-    <hyperlink ref="B180" r:id="rId72"/>
-    <hyperlink ref="B182" r:id="rId73"/>
-    <hyperlink ref="B192" r:id="rId74"/>
-    <hyperlink ref="B196" r:id="rId75"/>
-    <hyperlink ref="B204" r:id="rId76"/>
-    <hyperlink ref="B206" r:id="rId77"/>
-    <hyperlink ref="B213" r:id="rId78"/>
-    <hyperlink ref="B214" r:id="rId79"/>
-    <hyperlink ref="B215" r:id="rId80"/>
-    <hyperlink ref="B226" r:id="rId81"/>
+    <hyperlink ref="B170" r:id="rId63"/>
+    <hyperlink ref="B180" r:id="rId64"/>
+    <hyperlink ref="B187" r:id="rId65"/>
+    <hyperlink ref="B188" r:id="rId66"/>
+    <hyperlink ref="B194" r:id="rId67"/>
+    <hyperlink ref="B195" r:id="rId68"/>
+    <hyperlink ref="B196" r:id="rId69"/>
+    <hyperlink ref="B197" r:id="rId70"/>
+    <hyperlink ref="B198" r:id="rId71"/>
+    <hyperlink ref="B200" r:id="rId72"/>
+    <hyperlink ref="B202" r:id="rId73"/>
+    <hyperlink ref="B212" r:id="rId74"/>
+    <hyperlink ref="B216" r:id="rId75"/>
+    <hyperlink ref="B224" r:id="rId76"/>
+    <hyperlink ref="B226" r:id="rId77"/>
+    <hyperlink ref="B233" r:id="rId78"/>
+    <hyperlink ref="B234" r:id="rId79"/>
+    <hyperlink ref="B235" r:id="rId80"/>
+    <hyperlink ref="B246" r:id="rId81"/>
+    <hyperlink ref="B239" r:id="rId82"/>
+    <hyperlink ref="B241" r:id="rId83"/>
+    <hyperlink ref="B242" r:id="rId84"/>
+    <hyperlink ref="B243" r:id="rId85"/>
+    <hyperlink ref="B244" r:id="rId86"/>
+    <hyperlink ref="B245" r:id="rId87"/>
+    <hyperlink ref="B247" r:id="rId88"/>
+    <hyperlink ref="B248" r:id="rId89"/>
+    <hyperlink ref="B249" r:id="rId90"/>
+    <hyperlink ref="B250" r:id="rId91"/>
+    <hyperlink ref="B251" r:id="rId92"/>
+    <hyperlink ref="B252" r:id="rId93"/>
+    <hyperlink ref="B126" r:id="rId94"/>
+    <hyperlink ref="B127" r:id="rId95"/>
+    <hyperlink ref="B128" r:id="rId96"/>
+    <hyperlink ref="B129" r:id="rId97"/>
+    <hyperlink ref="B130" r:id="rId98"/>
+    <hyperlink ref="B131" r:id="rId99"/>
+    <hyperlink ref="B132" r:id="rId100"/>
+    <hyperlink ref="B133" r:id="rId101"/>
+    <hyperlink ref="B134" r:id="rId102"/>
+    <hyperlink ref="B135" r:id="rId103"/>
+    <hyperlink ref="B136" r:id="rId104"/>
+    <hyperlink ref="B137" r:id="rId105"/>
+    <hyperlink ref="B138" r:id="rId106"/>
+    <hyperlink ref="B139" r:id="rId107"/>
+    <hyperlink ref="B140" r:id="rId108"/>
+    <hyperlink ref="B141" r:id="rId109"/>
+    <hyperlink ref="B142" r:id="rId110"/>
+    <hyperlink ref="B143" r:id="rId111"/>
+    <hyperlink ref="B144" r:id="rId112"/>
+    <hyperlink ref="B145" r:id="rId113"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId82"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId114"/>
 </worksheet>
 </file>
 

--- a/storage/app/import/pixmosaic-video/pix_video.xlsx
+++ b/storage/app/import/pixmosaic-video/pix_video.xlsx
@@ -1266,9 +1266,6 @@
     <t>PIX332</t>
   </si>
   <si>
-    <t>PIX339</t>
-  </si>
-  <si>
     <t>PIX330</t>
   </si>
   <si>
@@ -1414,6 +1411,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=A2Oe2ouYu9w</t>
+  </si>
+  <si>
+    <t>PIX329</t>
   </si>
 </sst>
 </file>
@@ -1763,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2733,114 +2733,114 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2848,7 +2848,7 @@
         <v>429</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2856,7 +2856,7 @@
         <v>428</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2864,7 +2864,7 @@
         <v>427</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2872,23 +2872,23 @@
         <v>426</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3584,7 +3584,7 @@
         <v>221</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3592,7 +3592,7 @@
         <v>222</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3600,7 +3600,7 @@
         <v>223</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3608,7 +3608,7 @@
         <v>224</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3616,7 +3616,7 @@
         <v>225</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3624,7 +3624,7 @@
         <v>226</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3632,7 +3632,7 @@
         <v>227</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3640,7 +3640,7 @@
         <v>228</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3648,7 +3648,7 @@
         <v>229</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3656,7 +3656,7 @@
         <v>230</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3664,7 +3664,7 @@
         <v>231</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3672,7 +3672,7 @@
         <v>232</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -3781,15 +3781,15 @@
     <hyperlink ref="B134" r:id="rId102"/>
     <hyperlink ref="B135" r:id="rId103"/>
     <hyperlink ref="B136" r:id="rId104"/>
-    <hyperlink ref="B137" r:id="rId105"/>
-    <hyperlink ref="B138" r:id="rId106"/>
-    <hyperlink ref="B139" r:id="rId107"/>
-    <hyperlink ref="B140" r:id="rId108"/>
-    <hyperlink ref="B141" r:id="rId109"/>
-    <hyperlink ref="B142" r:id="rId110"/>
-    <hyperlink ref="B143" r:id="rId111"/>
-    <hyperlink ref="B144" r:id="rId112"/>
-    <hyperlink ref="B145" r:id="rId113"/>
+    <hyperlink ref="B138" r:id="rId105"/>
+    <hyperlink ref="B139" r:id="rId106"/>
+    <hyperlink ref="B140" r:id="rId107"/>
+    <hyperlink ref="B141" r:id="rId108"/>
+    <hyperlink ref="B142" r:id="rId109"/>
+    <hyperlink ref="B143" r:id="rId110"/>
+    <hyperlink ref="B144" r:id="rId111"/>
+    <hyperlink ref="B145" r:id="rId112"/>
+    <hyperlink ref="B137" r:id="rId113"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId114"/>
